--- a/assets/files/bm_thong_tin_hang_hoa_trung_thau.xlsx
+++ b/assets/files/bm_thong_tin_hang_hoa_trung_thau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF5D7E-C769-484B-A224-F0FD962C5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374A8CC-2622-4D7B-AC3A-75786F0266EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33150" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
   <si>
     <t>Tên phần (lô)</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>KL</t>
+  </si>
+  <si>
+    <t>Thuế VAT (%)</t>
   </si>
   <si>
     <t>Đơn giá trúng thầu sau thuế</t>
@@ -104,11 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,6 +162,75 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
@@ -503,261 +575,315 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,25 +1220,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,290 +1270,315 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="12">
+      <c r="I2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="13">
+        <v>10</v>
+      </c>
+      <c r="K2" s="103">
         <v>5525999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="13">
+      <c r="I3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="14">
+        <v>8</v>
+      </c>
+      <c r="K3" s="103">
         <v>8636253</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="22"/>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="31"/>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="40"/>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="49"/>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="58"/>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="67"/>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="76"/>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="85"/>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Chỉ được nhập số nguyên lớn hơn hoặc bằng 0!" sqref="E2:E11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Chỉ được nhập số nguyên lớn hơn hoặc bằng 0!" sqref="J2:J11 E2:E11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
